--- a/Messung - realvalues.xlsx
+++ b/Messung - realvalues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentaugstein/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\Module_SixSigmaProblemloesung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F25E26-CDB3-FA43-8859-64ACAD1E02EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B027DDDE-B59D-4C38-9BA0-71DA262F61FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="22100" windowWidth="33600" windowHeight="19380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5580" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSA1" sheetId="1" r:id="rId1"/>
@@ -433,9 +433,9 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -451,7 +451,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -467,7 +467,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -475,7 +475,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -483,7 +483,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -491,7 +491,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -499,7 +499,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -507,7 +507,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -515,7 +515,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -523,7 +523,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -531,7 +531,7 @@
         <v>3.1139999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -539,7 +539,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -547,7 +547,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -555,7 +555,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -563,7 +563,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -571,7 +571,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -579,7 +579,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -587,7 +587,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -595,7 +595,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -603,7 +603,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -611,7 +611,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -619,7 +619,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -627,7 +627,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -635,7 +635,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -656,14 +656,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -680,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -808,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -816,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -832,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -853,9 +853,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -871,7 +871,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -879,7 +879,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -887,7 +887,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -895,7 +895,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -903,7 +903,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -911,7 +911,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -927,7 +927,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -935,7 +935,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -943,7 +943,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -951,7 +951,7 @@
         <v>3.1139999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -959,7 +959,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -967,7 +967,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -975,7 +975,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -983,7 +983,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -991,7 +991,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1072,16 +1072,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E6A9E4-5724-4A38-BB01-F82814811FF7}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A2" zoomScale="164" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1436,14 +1436,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2027,15 +2027,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC8707E-CEA8-4BB2-80EF-39220B3B6414}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2043,204 +2043,279 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>5.2435790000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <v>5.2620009999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>3.47</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12" s="1">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16" s="1">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17" s="1">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>4.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18" s="1">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19" s="1">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <v>5.3891359999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>3.52</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <v>5.2774200000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <v>5.38565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24" s="1">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D25" s="1">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>3.45</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5.31</v>
       </c>
     </row>
   </sheetData>
